--- a/biology/Botanique/Xylopia/Xylopia.xlsx
+++ b/biology/Botanique/Xylopia/Xylopia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xylopia est un genre de plantes à fleurs de la famille des Annonaceae, décrit par Linné et comprenant plus d'une centaine d'espèces pantropicales , dont les "poivres africains" (African pepper)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xylopia est un genre de plantes à fleurs de la famille des Annonaceae, décrit par Linné et comprenant plus d'une centaine d'espèces pantropicales , dont les "poivres africains" (African pepper).
 </t>
         </is>
       </c>
@@ -511,12 +523,50 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[2] :
-Espèces valides
-Xylopia acutiflora (Dunal) A.Rich. - elo à petites feuilles[1]
-Xylopia aethiopica (Dunal) A.Rich. - piment noir de Guinée, poivre de Guinée, poivre d’Éthiopie, poivre nègre, kani[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Xylopia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xylopia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Xylopia acutiflora (Dunal) A.Rich. - elo à petites feuilles
+Xylopia aethiopica (Dunal) A.Rich. - piment noir de Guinée, poivre de Guinée, poivre d’Éthiopie, poivre nègre, kani
 Xylopia africana Oliv.
 Xylopia amazonica R.E.Fr.
 Xylopia ambanjensis Cavaco &amp; Keraudren
@@ -624,7 +674,43 @@
 Xylopia villosa Chipp
 Xylopia wilwerthii De Wild. &amp; T.Durand
 Xylopia xylantha R.E. Fr.
-Nomenclatures taxonomiques non résolues
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Xylopia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xylopia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nomenclatures taxonomiques non résolues</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Xylopia acunae Borhidi E.Del-Risco
 Xylopia aligustrifolia Dunal
 Xylopia altissima Boerl.
